--- a/assets/tower_upgrades.xlsx
+++ b/assets/tower_upgrades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\Projekte\pico\pico-bubble-towers\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A152FA-7B9C-4D29-9152-3E0BB7C87192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760F1EC1-9294-40CD-B72F-CE95BCE43997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E8ABA74-1C8E-408B-B6B2-4FB773843FD4}"/>
   </bookViews>
@@ -166,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEACD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCA6AC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9137"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,11 +373,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,6 +403,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9137"/>
+      <color rgb="FFFCA6AC"/>
+      <color rgb="FFFE347C"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFDEACD3"/>
     </mruColors>
   </colors>
@@ -640,8 +678,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2549,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A88C73-B1E0-4520-9824-C76316635173}">
   <dimension ref="A1:W345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2619,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="28">
@@ -2606,7 +2644,7 @@
       <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -2726,22 +2764,22 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
+      <c r="B7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <v>40</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>100</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9">
         <v>190</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -3338,23 +3376,23 @@
     </row>
     <row r="39" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="35" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="36" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="10"/>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="36" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="10"/>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3420,19 +3458,19 @@
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="31" t="s">
         <v>1</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="31" t="s">
         <v>18</v>
       </c>
       <c r="H44" s="10"/>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="10"/>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3496,19 +3534,19 @@
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="33" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="33" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="15"/>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="33" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="15"/>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="34" t="s">
         <v>20</v>
       </c>
     </row>
